--- a/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim-10_results.xlsx
+++ b/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim-10_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCAE156-C788-48F1-A3B3-BE262FD6253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF207C9-91C4-4CB1-BEF3-A1CC6D77DCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{A4262A69-E3F3-4283-9EE5-2CBD24181D03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{9F23387C-1121-4D26-B043-592BAD5BD05E}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2CFEE-8B50-4A4C-B90B-E7356753E839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F319BA-6BC8-4CD8-B7FA-45E7B66C2CE0}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1350,17 +1350,11 @@
       <c r="C35">
         <v>66.400000000000006</v>
       </c>
-      <c r="D35">
-        <v>10.791310868715316</v>
-      </c>
       <c r="E35">
         <v>241.4</v>
       </c>
-      <c r="F35">
-        <v>39.241130431692049</v>
-      </c>
       <c r="G35">
-        <v>-202.15886956830795</v>
+        <v>-241.4</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1431,16 +1425,16 @@
         <v>1471.1000000000006</v>
       </c>
       <c r="D39">
-        <v>950.85374774111131</v>
+        <v>940.06243687239601</v>
       </c>
       <c r="E39">
         <v>806.59999999999991</v>
       </c>
       <c r="F39">
-        <v>324.01905593495871</v>
+        <v>284.77792550326666</v>
       </c>
       <c r="G39">
-        <v>-482.58094406504131</v>
+        <v>-521.82207449673342</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1815,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63B89E2-BDCE-4B82-903C-C5ED1285E3A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9C6919-839B-430C-9831-71FBE0E1BEB2}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2269,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D1DAF8-7CD8-48B3-AF44-C1BD6B7A5CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED440FC7-648D-4A19-8202-5BB03650B987}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2696,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131FC10E-AB7C-4176-9BEC-6072CDE272C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35A8558-20A1-463E-A418-B0394563BF60}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2826,13 +2820,13 @@
         <v>2461.5000000000014</v>
       </c>
       <c r="E6">
-        <v>1225.6856748937785</v>
+        <v>1214.8943640250632</v>
       </c>
       <c r="F6">
-        <v>-932.09983931190436</v>
+        <v>-942.89115018061966</v>
       </c>
       <c r="G6">
-        <v>56.802942962798319</v>
+        <v>56.302832511705233</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2849,13 +2843,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E7">
-        <v>41.698686055940364</v>
+        <v>41.227792490760059</v>
       </c>
       <c r="F7">
-        <v>-28.429504820410195</v>
+        <v>-28.900398385590499</v>
       </c>
       <c r="G7">
-        <v>59.460661304471891</v>
+        <v>58.7891858831102</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2872,13 +2866,13 @@
         <v>60.9</v>
       </c>
       <c r="E8">
-        <v>14.863948025507099</v>
+        <v>14.785465764643714</v>
       </c>
       <c r="F8">
-        <v>-49.869617400663373</v>
+        <v>-49.948099661526754</v>
       </c>
       <c r="G8">
-        <v>22.961732337236452</v>
+        <v>22.840493440001758</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2895,13 +2889,13 @@
         <v>299.09999999999997</v>
       </c>
       <c r="E9">
-        <v>217.18439830446914</v>
+        <v>215.13404923941323</v>
       </c>
       <c r="F9">
-        <v>-106.4834288263832</v>
+        <v>-108.53377789143912</v>
       </c>
       <c r="G9">
-        <v>67.101015330963335</v>
+        <v>66.467542092912083</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3003,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCAAD02-17EE-4753-BE37-9D5996EC7548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF331641-7260-4E43-8D38-49646F96D01A}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3258,14 +3252,8 @@
       <c r="C15">
         <v>241.4</v>
       </c>
-      <c r="D15">
-        <v>39.241130431692049</v>
-      </c>
-      <c r="E15">
-        <v>16.255646409151637</v>
-      </c>
       <c r="F15">
-        <v>-202.15886956830795</v>
+        <v>-241.4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3597,7 +3585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E507F0-E616-46A3-8791-92598806C4D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614128BD-AC54-4DAF-81A2-3F38B2E42B53}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3895,9 +3883,6 @@
       <c r="E11">
         <v>539.91268800000023</v>
       </c>
-      <c r="S11">
-        <v>79.824242424242428</v>
-      </c>
       <c r="U11">
         <v>35.100000000000009</v>
       </c>
@@ -5554,7 +5539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F82D81-8D68-4BF1-8D4E-FFED0FF95134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD3B508-7961-42AE-9A28-D801CC3591E5}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5704,9 +5689,6 @@
       <c r="D3">
         <v>1.7817118703999973E-2</v>
       </c>
-      <c r="R3">
-        <v>6.5056757575757448E-2</v>
-      </c>
       <c r="T3">
         <v>9.3716999999999828E-2</v>
       </c>
@@ -5723,7 +5705,7 @@
         <v>6.8766859694790712E-3</v>
       </c>
       <c r="AF3">
-        <v>0.97726737784001183</v>
+        <v>0.91221062026425437</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5869,7 +5851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0786CD-DF20-44D1-9FBE-137166692014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE1B40A-45FD-4E30-AD48-3952C91A0C47}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6062,9 +6044,6 @@
       <c r="E5">
         <v>55611.006864000025</v>
       </c>
-      <c r="S5">
-        <v>21951.666666666668</v>
-      </c>
       <c r="U5">
         <v>5019.3</v>
       </c>
@@ -6075,7 +6054,7 @@
         <v>8864</v>
       </c>
       <c r="Z5">
-        <v>313537.95948739839</v>
+        <v>291586.2928207317</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6094,9 +6073,6 @@
       <c r="E6">
         <v>66409.260624000031</v>
       </c>
-      <c r="S6">
-        <v>13171</v>
-      </c>
       <c r="U6">
         <v>1719.9</v>
       </c>
@@ -6107,7 +6083,7 @@
         <v>13850</v>
       </c>
       <c r="Z6">
-        <v>354586.28265000001</v>
+        <v>341415.28265000001</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6126,9 +6102,6 @@
       <c r="E7">
         <v>50751.792672000025</v>
       </c>
-      <c r="S7">
-        <v>20993.775757575757</v>
-      </c>
       <c r="U7">
         <v>2492.1</v>
       </c>
@@ -6139,7 +6112,7 @@
         <v>8864</v>
       </c>
       <c r="Z7">
-        <v>344910.72155513667</v>
+        <v>323916.94579756091</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
